--- a/biology/Zoologie/Arbacina/Arbacina.xlsx
+++ b/biology/Zoologie/Arbacina/Arbacina.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Arbacina est un  genre éteint d'oursins (échinodermes) de la famille des Trigonocidaridae.
 Ses fossiles sont connus dans le Miocène et le Pliocène des pays riverains de la mer Méditerranée.
@@ -512,7 +524,9 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Arbacina catenata Desor, in Agassiz &amp; Desor, 1846 † Miocène. (Burdigalien-Langhien), France, Égypte.
 Arbacina fourtaui Lambert, 1907 † Burdigalien, Égypte.
@@ -551,7 +565,9 @@
           <t>Problématique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'espèce type est problématique en ce qu'elle manque d'une définition bien définie et n'a que des types plutôt non définis. Ses affinités avec les Temnopleuridae ne sont donc pas certaines. Il n'est pas non plus clair que beaucoup des espèces actuellement assignées à ce genre y appartiennent vraiment. 
 Plusieurs espèces assignées à Arbacina montrent la forme classique de Temnopleuridae, avec la piqûre profonde sous les tubercules primaires. Des formes telles que Arbacina savini Lambert, 1910, sans piqûre, semblent être de bons Psammechinus. 
